--- a/medicine/Psychotrope/À-fond/À-fond.xlsx
+++ b/medicine/Psychotrope/À-fond/À-fond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%80-fond</t>
+          <t>À-fond</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'à-fond, parfois improprement écrit affond[1] (en latin ad fundum) est une tradition belge et néerlandaise qui existe dans les milieux festifs estudiantins et qui consiste à boire en une seule fois la totalité d'un verre, souvent de bière.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'à-fond, parfois improprement écrit affond (en latin ad fundum) est une tradition belge et néerlandaise qui existe dans les milieux festifs estudiantins et qui consiste à boire en une seule fois la totalité d'un verre, souvent de bière.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%80-fond</t>
+          <t>À-fond</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'à-fond est une pratique très répandue dans les milieux estudiantins belges et se pratique de manière extrêmement courante lors des guindailles et des baptêmes d'étudiants[2],[3],[4]. Celui-ci consiste à boire de la manière la plus rapide possible une quantité quelconque de bière, généralement en compétition avec un ou plusieurs opposants. 
-Ce rite est souvent précédé par un petit chant classique "Au Frontibus"[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'à-fond est une pratique très répandue dans les milieux estudiantins belges et se pratique de manière extrêmement courante lors des guindailles et des baptêmes d'étudiants. Celui-ci consiste à boire de la manière la plus rapide possible une quantité quelconque de bière, généralement en compétition avec un ou plusieurs opposants. 
+Ce rite est souvent précédé par un petit chant classique "Au Frontibus",.
 La qualité d'un à-fond sera avant tout jugée sur sa vitesse d'exécution ; c'est d'ailleurs cette notion de vitesse qui le distingue du cul sec.
 L'à-fond le plus classique consiste en une pils de 25 cl servie dans un gobelet en plastique. Les plus rapides parviennent à faire disparaître le contenu en une seule gorgée ou même sans déglutition, en bloquant leur glotte. 
 Afin d'ajouter un certain piment, des centaines de variantes ont été inventées, allant de l'à-fond sympathique sans enjeu, au shot gun aussi appelé "crack" consistant à boire une canette par un trou percé dans sa partie inférieure, de manière à accélérer l'écoulement du fluide grâce à un appel d'air.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%80-fond</t>
+          <t>À-fond</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Les différents types d'à-fonds</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Classique : il consiste à boire un verre le plus rapidement possible.
 Le Pif-Paf : il consiste à boire deux verres de suite le plus rapidement possible.
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%80-fond</t>
+          <t>À-fond</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'À-Fond Liégeois est aussi le nom d'un café d'étudiants à Liège.</t>
         </is>
